--- a/All Scrapped Excels/Doos-Sillas-Sillones.xlsx
+++ b/All Scrapped Excels/Doos-Sillas-Sillones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Company</t>
         </is>
       </c>
     </row>
@@ -479,6 +484,11 @@
           <t xml:space="preserve">Blur metal </t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t xml:space="preserve">Blur madera </t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t xml:space="preserve">Blur giratoria </t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t xml:space="preserve">Casia </t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t xml:space="preserve">Pelikan giratorio madera </t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t xml:space="preserve">Dalia madera </t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t xml:space="preserve">Karen madera </t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t xml:space="preserve">Karen acero </t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t xml:space="preserve">Pelikan acero </t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t xml:space="preserve">Pelikan acero </t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t xml:space="preserve">Pelikan giratoria </t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t xml:space="preserve">Pelikan giratorio </t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t xml:space="preserve">Pelikan madera </t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t xml:space="preserve">Pelikan madera </t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t xml:space="preserve">Pelikan giratoria madera </t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t xml:space="preserve">Pure </t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t xml:space="preserve">Pure </t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t xml:space="preserve">Roma acero </t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t xml:space="preserve">Roma madera </t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t xml:space="preserve">Roma madera </t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t xml:space="preserve">Zeta </t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t xml:space="preserve">Evia giratorio madera </t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t xml:space="preserve">Evia giratorio metal </t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t xml:space="preserve">Evia madera </t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t xml:space="preserve">Evia metal </t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t xml:space="preserve">Evia PZ </t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Doos</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1127,6 +1262,11 @@
       <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve">Retro </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Doos</t>
         </is>
       </c>
     </row>
